--- a/exp/participants.xlsx
+++ b/exp/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7929E2-F73A-1F47-BDAE-780E6D815EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB84B1-99A5-F04C-B96C-09AA19D6A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="960" windowWidth="28040" windowHeight="17260" xr2:uid="{96E51338-6689-0449-A9C7-0EBFC030EFF7}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEAE74D-1ED4-1740-9A59-A2039BA4CFDE}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -474,7 +474,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f ca="1">INT(RAND()*100)</f>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>32</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>83</v>
       </c>
       <c r="C31" s="4">
@@ -755,7 +755,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <v>21</v>
       </c>
       <c r="C33" s="5">

--- a/exp/participants.xlsx
+++ b/exp/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB84B1-99A5-F04C-B96C-09AA19D6A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5CE30A-C5C5-2B43-9DE6-9C3A098905E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="960" windowWidth="28040" windowHeight="17260" xr2:uid="{96E51338-6689-0449-A9C7-0EBFC030EFF7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>rand_num</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>Lextale</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEAE74D-1ED4-1740-9A59-A2039BA4CFDE}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -460,7 +463,7 @@
     <col min="2" max="2" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,12 +473,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <f ca="1">INT(RAND()*100)</f>
-        <v>2</v>
-      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>32</v>
       </c>
@@ -483,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="6">
         <v>52</v>
@@ -491,8 +494,11 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>1</v>
@@ -501,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>61</v>
@@ -510,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>92</v>
@@ -519,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>35</v>
@@ -528,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>5</v>
@@ -537,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3">
         <v>72</v>
@@ -546,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>45</v>
@@ -555,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3">
         <v>20</v>
@@ -564,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>84</v>
@@ -573,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>46</v>
@@ -582,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3">
         <v>24</v>
@@ -591,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3">
         <v>77</v>
@@ -600,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3">
         <v>19</v>
@@ -609,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3">
         <v>31</v>
@@ -618,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3">
         <v>75</v>
@@ -627,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3">
         <v>23</v>
@@ -636,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3">
         <v>74</v>
@@ -645,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3">
         <v>86</v>
@@ -654,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3">
         <v>42</v>
@@ -663,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3">
         <v>70</v>
@@ -672,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3">
         <v>47</v>
@@ -681,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3">
         <v>58</v>
@@ -690,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3">
         <v>62</v>
@@ -699,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3">
         <v>70</v>
@@ -708,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3">
         <v>68</v>
@@ -717,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="6">
         <v>10</v>
@@ -726,16 +732,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>4</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="6">
         <v>83</v>
@@ -744,13 +750,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="6">
         <v>95</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">

--- a/exp/participants.xlsx
+++ b/exp/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5CE30A-C5C5-2B43-9DE6-9C3A098905E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023CC43-D679-3E4F-B817-8289FADEFB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="960" windowWidth="28040" windowHeight="17260" xr2:uid="{96E51338-6689-0449-A9C7-0EBFC030EFF7}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEAE74D-1ED4-1740-9A59-A2039BA4CFDE}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -740,6 +740,9 @@
       <c r="C30" s="4">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>-9</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>

--- a/exp/participants.xlsx
+++ b/exp/participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023CC43-D679-3E4F-B817-8289FADEFB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7BA5AA-C117-EA49-9135-48C78261E9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="960" windowWidth="28040" windowHeight="17260" xr2:uid="{96E51338-6689-0449-A9C7-0EBFC030EFF7}"/>
+    <workbookView xWindow="1360" yWindow="940" windowWidth="28040" windowHeight="17260" xr2:uid="{96E51338-6689-0449-A9C7-0EBFC030EFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEAE74D-1ED4-1740-9A59-A2039BA4CFDE}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="6">
         <v>21</v>
@@ -773,8 +773,11 @@
       <c r="C33" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3">
         <v>65</v>
@@ -783,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3">
         <v>28</v>
@@ -792,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3">
         <v>21</v>
@@ -801,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3">
         <v>73</v>
@@ -810,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3">
         <v>74</v>
@@ -819,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3">
         <v>91</v>
@@ -828,7 +831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3">
         <v>29</v>
@@ -837,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3">
         <v>67</v>
@@ -846,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3">
         <v>33</v>
@@ -855,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3">
         <v>54</v>
@@ -864,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3">
         <v>27</v>
@@ -873,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3">
         <v>6</v>
@@ -882,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3">
         <v>29</v>
@@ -891,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3">
         <v>0</v>
@@ -900,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3">
         <v>98</v>
